--- a/biology/Zoologie/Inpaichthys_kerri/Inpaichthys_kerri.xlsx
+++ b/biology/Zoologie/Inpaichthys_kerri/Inpaichthys_kerri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inpaichthys kerri est une espèce de poissons américains de la famille des Characidae. C'est la seule espèce du genre Inpaichthys (monotypique).
 À noter que ce genre est parfois orthographié à tort Impaichtys, très probablement pour respecter la règle habituelle concernant le remplacement du « n » par un « m » devant la lettre « p ».
@@ -513,7 +525,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre et espèce sont à ne surtout pas confondre avec un genre très ressemblant, Nematobrycon, qui ne possède pas de nageoire adipeuse.
 </t>
@@ -544,10 +558,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Inpaichthys reprend le sigle, « INPA », de l'Instituto Nacional de Pesquisas da Amazônia, qui a collecté les spécimens, et ichthys, « poisson »[1].
-Son nom spécifique, kerri, lui a été donné en l'honneur de Warwick Estevam Kerr (1922-2018), entomologiste brésilien et alors directeur de l'Instituto Nacional de Pesquisas da Amazônia[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Inpaichthys reprend le sigle, « INPA », de l'Instituto Nacional de Pesquisas da Amazônia, qui a collecté les spécimens, et ichthys, « poisson ».
+Son nom spécifique, kerri, lui a été donné en l'honneur de Warwick Estevam Kerr (1922-2018), entomologiste brésilien et alors directeur de l'Instituto Nacional de Pesquisas da Amazônia.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(pt + en) J. Géry et W. J. Junk, « Inpaichthys kerri n. g. n. sp., um novo peixe caracídeo do alto rio Aripuanã, Mato Grosso, Brasil », Acta Amazonica, INPA, vol. 7, no 3,‎ septembre 1977, p. 417-422 (ISSN 0044-5967 et 1809-4392, OCLC 423540997, lire en ligne)</t>
         </is>
